--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leblanc do rp\Desktop\BOT DISCORD\ipa bot\site escalas\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\leblanc do rp\Desktop\BOT DISCORD\ipa bot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E8217A4-51EC-4508-8362-25BAB37B1D89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDD27372-7410-4C86-ACEB-FB73E9000DB6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="417" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="27">
   <si>
     <t>ESCALAS  IPB ARARUNA</t>
   </si>
@@ -298,8 +298,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1549,10 +1555,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:I105"/>
+  <dimension ref="B1:I54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A71" workbookViewId="0">
-      <selection activeCell="I93" sqref="I93"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1569,1801 +1575,922 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="22.5" x14ac:dyDescent="0.45">
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
     </row>
     <row r="2" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="F2" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="7" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="8">
+      <c r="B3" s="10">
         <v>45312</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="G3" s="7">
+      <c r="F3" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="9">
         <f ca="1">TODAY()</f>
-        <v>45585</v>
-      </c>
-      <c r="H3" s="6">
+        <v>45438</v>
+      </c>
+      <c r="H3" s="8">
         <f>COUNT(B3:B52)</f>
         <v>50</v>
       </c>
-      <c r="I3" s="6">
+      <c r="I3" s="8">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="11">
+      <c r="B4" s="13">
         <v>45319</v>
       </c>
-      <c r="C4" s="12" t="s">
+      <c r="C4" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="15" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="8">
+      <c r="B5" s="10">
         <v>45326</v>
       </c>
-      <c r="C5" s="9" t="s">
+      <c r="C5" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="9" t="s">
+      <c r="D5" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="E5" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="16" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="15">
+      <c r="B6" s="17">
         <v>45333</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="D6" s="16" t="s">
+      <c r="D6" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="16" t="s">
+      <c r="E6" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="17" t="s">
+      <c r="F6" s="19" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="8">
+      <c r="B7" s="10">
         <v>45340</v>
       </c>
-      <c r="C7" s="9" t="s">
+      <c r="C7" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E7" s="9" t="s">
+      <c r="E7" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="F7" s="16" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="11">
+      <c r="B8" s="13">
         <v>45347</v>
       </c>
-      <c r="C8" s="12" t="s">
+      <c r="C8" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="12" t="s">
+      <c r="D8" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="F8" s="15" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="8">
+      <c r="B9" s="10">
         <v>45354</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="D9" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="E9" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F9" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="G9" s="2"/>
+      <c r="F9" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" s="4"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="15">
+      <c r="B10" s="17">
         <v>45361</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="16" t="s">
+      <c r="D10" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="E10" s="16" t="s">
+      <c r="E10" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="17" t="s">
+      <c r="F10" s="19" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="8">
+      <c r="B11" s="10">
         <v>45368</v>
       </c>
-      <c r="C11" s="9" t="s">
+      <c r="C11" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="D11" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="E11" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="F11" s="14" t="s">
+      <c r="F11" s="16" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="11">
+      <c r="B12" s="13">
         <v>45375</v>
       </c>
-      <c r="C12" s="12" t="s">
+      <c r="C12" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="D12" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="E12" s="12" t="s">
+      <c r="E12" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="13" t="s">
+      <c r="F12" s="15" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B13" s="8">
+      <c r="B13" s="10">
         <v>45382</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="D13" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="E13" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F13" s="14" t="s">
+      <c r="F13" s="16" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B14" s="15">
+      <c r="B14" s="17">
         <v>45389</v>
       </c>
-      <c r="C14" s="16" t="s">
+      <c r="C14" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="D14" s="16" t="s">
+      <c r="D14" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="E14" s="16" t="s">
+      <c r="E14" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="F14" s="17" t="s">
+      <c r="F14" s="19" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B15" s="8">
+      <c r="B15" s="10">
         <v>45396</v>
       </c>
-      <c r="C15" s="9" t="s">
+      <c r="C15" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="D15" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="E15" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="F15" s="14" t="s">
+      <c r="F15" s="16" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B16" s="11">
+      <c r="B16" s="13">
         <v>45403</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C16" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="D16" s="12" t="s">
+      <c r="D16" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="E16" s="12" t="s">
+      <c r="E16" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="F16" s="13" t="s">
+      <c r="F16" s="15" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B17" s="8">
+      <c r="B17" s="10">
         <v>45410</v>
       </c>
-      <c r="C17" s="9" t="s">
+      <c r="C17" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="D17" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E17" s="9" t="s">
+      <c r="E17" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F17" s="14" t="s">
+      <c r="F17" s="16" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B18" s="15">
+      <c r="B18" s="17">
         <v>45417</v>
       </c>
-      <c r="C18" s="16" t="s">
+      <c r="C18" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="D18" s="16" t="s">
+      <c r="D18" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="E18" s="16" t="s">
+      <c r="E18" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="F18" s="18" t="s">
+      <c r="F18" s="20" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B19" s="8">
+      <c r="B19" s="10">
         <v>45424</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="D19" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="E19" s="9" t="s">
+      <c r="E19" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="F19" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="G19" s="23"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="24"/>
+      <c r="F19" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="G19" s="25"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="26"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="11">
+      <c r="B20" s="13">
         <v>45431</v>
       </c>
-      <c r="C20" s="12" t="s">
+      <c r="C20" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="D20" s="12" t="s">
+      <c r="D20" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="E20" s="12" t="s">
+      <c r="E20" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="F20" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="G20" s="21"/>
+      <c r="F20" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="G20" s="23"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="8">
+      <c r="B21" s="10">
         <v>45438</v>
       </c>
-      <c r="C21" s="9" t="s">
+      <c r="C21" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D21" s="9" t="s">
+      <c r="D21" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="E21" s="9" t="s">
+      <c r="E21" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F21" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="G21" s="21"/>
+      <c r="F21" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="G21" s="23"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B22" s="15">
+      <c r="B22" s="17">
         <v>45445</v>
       </c>
-      <c r="C22" s="16" t="s">
+      <c r="C22" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="D22" s="16" t="s">
+      <c r="D22" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="E22" s="16" t="s">
+      <c r="E22" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="F22" s="18" t="s">
+      <c r="F22" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="G22" s="22"/>
+      <c r="G22" s="24"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B23" s="8">
+      <c r="B23" s="10">
         <v>45452</v>
       </c>
-      <c r="C23" s="9" t="s">
+      <c r="C23" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D23" s="9" t="s">
+      <c r="D23" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="E23" s="9" t="s">
+      <c r="E23" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="F23" s="14" t="s">
+      <c r="F23" s="16" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B24" s="11">
+      <c r="B24" s="13">
         <v>45459</v>
       </c>
-      <c r="C24" s="12" t="s">
+      <c r="C24" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D24" s="12" t="s">
+      <c r="D24" s="14" t="s">
         <v>19</v>
       </c>
-      <c r="E24" s="12" t="s">
+      <c r="E24" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="F24" s="13" t="s">
+      <c r="F24" s="15" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B25" s="8">
+      <c r="B25" s="10">
         <v>45466</v>
       </c>
-      <c r="C25" s="9" t="s">
+      <c r="C25" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D25" s="9" t="s">
+      <c r="D25" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="E25" s="9" t="s">
+      <c r="E25" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F25" s="14" t="s">
+      <c r="F25" s="16" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B26" s="15">
+      <c r="B26" s="17">
         <v>45473</v>
       </c>
-      <c r="C26" s="16" t="s">
+      <c r="C26" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="D26" s="16" t="s">
+      <c r="D26" s="18" t="s">
         <v>20</v>
       </c>
-      <c r="E26" s="16" t="s">
+      <c r="E26" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="F26" s="18" t="s">
+      <c r="F26" s="20" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B27" s="8">
+      <c r="B27" s="10">
         <v>45480</v>
       </c>
-      <c r="C27" s="9" t="s">
+      <c r="C27" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D27" s="9" t="s">
+      <c r="D27" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="E27" s="9" t="s">
+      <c r="E27" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="F27" s="14" t="s">
+      <c r="F27" s="16" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B28" s="11">
+      <c r="B28" s="13">
         <v>45487</v>
       </c>
-      <c r="C28" s="12" t="s">
+      <c r="C28" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D28" s="12" t="s">
+      <c r="D28" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="E28" s="12" t="s">
+      <c r="E28" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="F28" s="13" t="s">
+      <c r="F28" s="15" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B29" s="8">
+      <c r="B29" s="10">
         <v>45494</v>
       </c>
-      <c r="C29" s="9" t="s">
+      <c r="C29" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D29" s="9" t="s">
+      <c r="D29" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="E29" s="9" t="s">
+      <c r="E29" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F29" s="14" t="s">
+      <c r="F29" s="16" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B30" s="15">
+      <c r="B30" s="17">
         <v>45501</v>
       </c>
-      <c r="C30" s="16" t="s">
+      <c r="C30" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="D30" s="16" t="s">
+      <c r="D30" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="E30" s="16" t="s">
+      <c r="E30" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="F30" s="18" t="s">
+      <c r="F30" s="20" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B31" s="8">
+      <c r="B31" s="10">
         <v>45508</v>
       </c>
-      <c r="C31" s="9" t="s">
+      <c r="C31" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D31" s="9" t="s">
+      <c r="D31" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="E31" s="9" t="s">
+      <c r="E31" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="F31" s="14" t="s">
+      <c r="F31" s="16" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B32" s="11">
+      <c r="B32" s="13">
         <v>45515</v>
       </c>
-      <c r="C32" s="12" t="s">
+      <c r="C32" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D32" s="12" t="s">
+      <c r="D32" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="E32" s="12" t="s">
+      <c r="E32" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="F32" s="13" t="s">
+      <c r="F32" s="15" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B33" s="8">
+      <c r="B33" s="10">
         <v>45522</v>
       </c>
-      <c r="C33" s="9" t="s">
+      <c r="C33" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D33" s="9" t="s">
+      <c r="D33" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="E33" s="9" t="s">
+      <c r="E33" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F33" s="14" t="s">
+      <c r="F33" s="16" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B34" s="15">
+      <c r="B34" s="17">
         <v>45529</v>
       </c>
-      <c r="C34" s="16" t="s">
+      <c r="C34" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="D34" s="16" t="s">
+      <c r="D34" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="E34" s="16" t="s">
+      <c r="E34" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="F34" s="18" t="s">
+      <c r="F34" s="20" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B35" s="8">
+      <c r="B35" s="10">
         <v>45536</v>
       </c>
-      <c r="C35" s="9" t="s">
+      <c r="C35" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="D35" s="9" t="s">
+      <c r="D35" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E35" s="9" t="s">
+      <c r="E35" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="F35" s="14" t="s">
+      <c r="F35" s="16" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B36" s="11">
+      <c r="B36" s="13">
         <v>45543</v>
       </c>
-      <c r="C36" s="12" t="s">
+      <c r="C36" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="D36" s="12" t="s">
+      <c r="D36" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="E36" s="12" t="s">
+      <c r="E36" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="F36" s="13" t="s">
+      <c r="F36" s="15" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B37" s="8">
+      <c r="B37" s="10">
         <v>45550</v>
       </c>
-      <c r="C37" s="9" t="s">
+      <c r="C37" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D37" s="9" t="s">
+      <c r="D37" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="E37" s="9" t="s">
+      <c r="E37" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F37" s="14" t="s">
+      <c r="F37" s="16" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B38" s="15">
+      <c r="B38" s="17">
         <v>45557</v>
       </c>
-      <c r="C38" s="16" t="s">
+      <c r="C38" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="D38" s="16" t="s">
+      <c r="D38" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="E38" s="16" t="s">
+      <c r="E38" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="F38" s="18" t="s">
+      <c r="F38" s="20" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B39" s="8">
+      <c r="B39" s="10">
         <v>45564</v>
       </c>
-      <c r="C39" s="9" t="s">
+      <c r="C39" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D39" s="9" t="s">
+      <c r="D39" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E39" s="9" t="s">
+      <c r="E39" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="F39" s="14" t="s">
+      <c r="F39" s="16" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B40" s="11">
+      <c r="B40" s="13">
         <v>45571</v>
       </c>
-      <c r="C40" s="12" t="s">
+      <c r="C40" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="D40" s="12" t="s">
+      <c r="D40" s="14" t="s">
         <v>5</v>
       </c>
-      <c r="E40" s="12" t="s">
+      <c r="E40" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="F40" s="13" t="s">
+      <c r="F40" s="15" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B41" s="8">
+      <c r="B41" s="10">
         <v>45578</v>
       </c>
-      <c r="C41" s="9" t="s">
+      <c r="C41" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="D41" s="9" t="s">
+      <c r="D41" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="E41" s="9" t="s">
+      <c r="E41" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="F41" s="14" t="s">
+      <c r="F41" s="16" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="42" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B42" s="15">
+      <c r="B42" s="17">
         <v>45585</v>
       </c>
-      <c r="C42" s="16" t="s">
+      <c r="C42" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="D42" s="16" t="s">
+      <c r="D42" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="E42" s="16" t="s">
+      <c r="E42" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="F42" s="18" t="s">
+      <c r="F42" s="20" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="43" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B43" s="19">
+      <c r="B43" s="21">
         <v>45592</v>
       </c>
-      <c r="C43" s="20" t="s">
+      <c r="C43" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="D43" s="20" t="s">
+      <c r="D43" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="E43" s="20" t="s">
+      <c r="E43" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="F43" s="14" t="s">
+      <c r="F43" s="16" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="44" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B44" s="11">
+      <c r="B44" s="13">
         <v>45599</v>
       </c>
-      <c r="C44" s="12" t="s">
+      <c r="C44" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="D44" s="12" t="s">
+      <c r="D44" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="E44" s="12" t="s">
+      <c r="E44" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="F44" s="13" t="s">
+      <c r="F44" s="15" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="45" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B45" s="19">
+      <c r="B45" s="21">
         <v>45606</v>
       </c>
-      <c r="C45" s="20" t="s">
+      <c r="C45" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="D45" s="20" t="s">
+      <c r="D45" s="22" t="s">
         <v>14</v>
       </c>
-      <c r="E45" s="20" t="s">
+      <c r="E45" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="F45" s="14" t="s">
+      <c r="F45" s="16" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="46" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B46" s="15">
+      <c r="B46" s="17">
         <v>45613</v>
       </c>
-      <c r="C46" s="16" t="s">
+      <c r="C46" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="D46" s="16" t="s">
+      <c r="D46" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="E46" s="16" t="s">
+      <c r="E46" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="F46" s="18" t="s">
+      <c r="F46" s="20" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="47" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B47" s="19">
+      <c r="B47" s="21">
         <v>45620</v>
       </c>
-      <c r="C47" s="20" t="s">
+      <c r="C47" s="22" t="s">
         <v>8</v>
       </c>
-      <c r="D47" s="20" t="s">
+      <c r="D47" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="E47" s="20" t="s">
+      <c r="E47" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="F47" s="14" t="s">
+      <c r="F47" s="16" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B48" s="11">
+      <c r="B48" s="13">
         <v>45627</v>
       </c>
-      <c r="C48" s="12" t="s">
+      <c r="C48" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="D48" s="12" t="s">
+      <c r="D48" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="E48" s="12" t="s">
+      <c r="E48" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="F48" s="13" t="s">
+      <c r="F48" s="15" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B49" s="19">
+      <c r="B49" s="21">
         <v>45634</v>
       </c>
-      <c r="C49" s="20" t="s">
+      <c r="C49" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="D49" s="20" t="s">
+      <c r="D49" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="E49" s="20" t="s">
+      <c r="E49" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="F49" s="14" t="s">
+      <c r="F49" s="16" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="50" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B50" s="15">
+      <c r="B50" s="17">
         <v>45641</v>
       </c>
-      <c r="C50" s="16" t="s">
+      <c r="C50" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="D50" s="16" t="s">
+      <c r="D50" s="18" t="s">
         <v>19</v>
       </c>
-      <c r="E50" s="16" t="s">
+      <c r="E50" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="F50" s="18" t="s">
+      <c r="F50" s="20" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="51" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B51" s="19">
+      <c r="B51" s="21">
         <v>45648</v>
       </c>
-      <c r="C51" s="20" t="s">
+      <c r="C51" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="D51" s="20" t="s">
+      <c r="D51" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="E51" s="20" t="s">
+      <c r="E51" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="F51" s="14" t="s">
+      <c r="F51" s="16" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="52" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B52" s="25">
+      <c r="B52" s="27">
         <v>45655</v>
       </c>
-      <c r="C52" s="12" t="s">
+      <c r="C52" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="D52" s="12" t="s">
+      <c r="D52" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="E52" s="12" t="s">
+      <c r="E52" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="F52" s="13" t="s">
+      <c r="F52" s="15" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="53" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B53" s="11">
-        <v>45662</v>
-      </c>
-      <c r="C53" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D53" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E53" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="F53" s="13" t="s">
-        <v>7</v>
-      </c>
+      <c r="B53" s="1"/>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
     </row>
     <row r="54" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B54" s="19">
-        <v>45669</v>
-      </c>
-      <c r="C54" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D54" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="E54" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="F54" s="14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B55" s="15">
-        <v>45676</v>
-      </c>
-      <c r="C55" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="D55" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="E55" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="F55" s="18" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B56" s="19">
-        <v>45683</v>
-      </c>
-      <c r="C56" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D56" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="E56" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="F56" s="14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B57" s="25">
-        <v>45690</v>
-      </c>
-      <c r="C57" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D57" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E57" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F57" s="13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B58" s="11">
-        <v>45697</v>
-      </c>
-      <c r="C58" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D58" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E58" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="F58" s="13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B59" s="19">
-        <v>45704</v>
-      </c>
-      <c r="C59" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D59" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="E59" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="F59" s="14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B60" s="15">
-        <v>45711</v>
-      </c>
-      <c r="C60" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="D60" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="E60" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="F60" s="18" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B61" s="19">
-        <v>45718</v>
-      </c>
-      <c r="C61" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D61" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="E61" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="F61" s="14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B62" s="25">
-        <v>45725</v>
-      </c>
-      <c r="C62" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D62" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E62" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F62" s="13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B63" s="11">
-        <v>45732</v>
-      </c>
-      <c r="C63" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D63" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E63" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="F63" s="13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B64" s="19">
-        <v>45739</v>
-      </c>
-      <c r="C64" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D64" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="E64" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="F64" s="14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B65" s="15">
-        <v>45746</v>
-      </c>
-      <c r="C65" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="D65" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="E65" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="F65" s="18" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B66" s="19">
-        <v>45753</v>
-      </c>
-      <c r="C66" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D66" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="E66" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="F66" s="14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B67" s="25">
-        <v>45760</v>
-      </c>
-      <c r="C67" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D67" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E67" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F67" s="13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B68" s="11">
-        <v>45767</v>
-      </c>
-      <c r="C68" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D68" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E68" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="F68" s="13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B69" s="19">
-        <v>45774</v>
-      </c>
-      <c r="C69" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D69" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="E69" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="F69" s="14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B70" s="15">
-        <v>45781</v>
-      </c>
-      <c r="C70" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="D70" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="E70" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="F70" s="18" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="71" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B71" s="19">
-        <v>45788</v>
-      </c>
-      <c r="C71" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D71" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="E71" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="F71" s="14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B72" s="25">
-        <v>45795</v>
-      </c>
-      <c r="C72" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D72" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E72" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F72" s="13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="73" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B73" s="11">
-        <v>45802</v>
-      </c>
-      <c r="C73" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D73" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E73" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="F73" s="13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="74" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B74" s="19">
-        <v>45809</v>
-      </c>
-      <c r="C74" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D74" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="E74" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="F74" s="14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="75" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B75" s="15">
-        <v>45816</v>
-      </c>
-      <c r="C75" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="D75" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="E75" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="F75" s="18" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="76" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B76" s="19">
-        <v>45823</v>
-      </c>
-      <c r="C76" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D76" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="E76" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="F76" s="14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="77" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B77" s="25">
-        <v>45830</v>
-      </c>
-      <c r="C77" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D77" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E77" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F77" s="13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="78" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B78" s="11">
-        <v>45837</v>
-      </c>
-      <c r="C78" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D78" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E78" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="F78" s="13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="79" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B79" s="19">
-        <v>45844</v>
-      </c>
-      <c r="C79" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D79" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="E79" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="F79" s="14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="80" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B80" s="15">
-        <v>45851</v>
-      </c>
-      <c r="C80" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="D80" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="E80" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="F80" s="18" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="81" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B81" s="19">
-        <v>45858</v>
-      </c>
-      <c r="C81" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D81" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="E81" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="F81" s="14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="82" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B82" s="25">
-        <v>45865</v>
-      </c>
-      <c r="C82" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D82" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E82" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F82" s="13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="83" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B83" s="11">
-        <v>45872</v>
-      </c>
-      <c r="C83" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D83" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E83" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="F83" s="13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="84" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B84" s="19">
-        <v>45879</v>
-      </c>
-      <c r="C84" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D84" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="E84" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="F84" s="14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="85" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B85" s="15">
-        <v>45886</v>
-      </c>
-      <c r="C85" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="D85" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="E85" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="F85" s="18" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="86" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B86" s="19">
-        <v>45893</v>
-      </c>
-      <c r="C86" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D86" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="E86" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="F86" s="14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="87" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B87" s="25">
-        <v>45900</v>
-      </c>
-      <c r="C87" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D87" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E87" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F87" s="13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="88" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B88" s="11">
-        <v>45907</v>
-      </c>
-      <c r="C88" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D88" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E88" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="F88" s="13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="89" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B89" s="19">
-        <v>45914</v>
-      </c>
-      <c r="C89" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D89" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="E89" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="F89" s="14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="90" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B90" s="15">
-        <v>45921</v>
-      </c>
-      <c r="C90" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="D90" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="E90" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="F90" s="18" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="91" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B91" s="19">
-        <v>45928</v>
-      </c>
-      <c r="C91" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D91" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="E91" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="F91" s="14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="92" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B92" s="25">
-        <v>45935</v>
-      </c>
-      <c r="C92" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D92" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E92" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F92" s="13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="93" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B93" s="11">
-        <v>45942</v>
-      </c>
-      <c r="C93" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D93" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E93" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="F93" s="13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="94" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B94" s="19">
-        <v>45949</v>
-      </c>
-      <c r="C94" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D94" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="E94" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="F94" s="14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="95" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B95" s="15">
-        <v>45956</v>
-      </c>
-      <c r="C95" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="D95" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="E95" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="F95" s="18" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="96" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B96" s="19">
-        <v>45963</v>
-      </c>
-      <c r="C96" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D96" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="E96" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="F96" s="14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="97" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B97" s="25">
-        <v>45970</v>
-      </c>
-      <c r="C97" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D97" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E97" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F97" s="13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="98" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B98" s="11">
-        <v>45977</v>
-      </c>
-      <c r="C98" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D98" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E98" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="F98" s="13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="99" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B99" s="19">
-        <v>45984</v>
-      </c>
-      <c r="C99" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D99" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="E99" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="F99" s="14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="100" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B100" s="15">
-        <v>45991</v>
-      </c>
-      <c r="C100" s="16" t="s">
-        <v>8</v>
-      </c>
-      <c r="D100" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="E100" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="F100" s="18" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="101" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B101" s="19">
-        <v>45998</v>
-      </c>
-      <c r="C101" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D101" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="E101" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="F101" s="14" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="102" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B102" s="25">
-        <v>46005</v>
-      </c>
-      <c r="C102" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="D102" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="E102" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="F102" s="13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="103" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B103" s="15">
-        <v>46012</v>
-      </c>
-      <c r="C103" s="16" t="s">
-        <v>11</v>
-      </c>
-      <c r="D103" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E103" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="F103" s="17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="104" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B104" s="11">
-        <v>46019</v>
-      </c>
-      <c r="C104" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D104" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E104" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="F104" s="13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="105" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B105" s="19"/>
-      <c r="C105" s="20"/>
-      <c r="D105" s="20"/>
-      <c r="E105" s="20"/>
-      <c r="F105" s="14"/>
+      <c r="B54" s="1"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Walter\Desktop\ipbararuna-main\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4497E12-950A-4937-A766-11F19670B200}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76E4CD44-68EF-4996-8A6F-EB266C70F7EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Walter\Desktop\ipbararuna-main\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ipara\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76E4CD44-68EF-4996-8A6F-EB266C70F7EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B676AE36-256C-4956-B8B3-E62316251396}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,48 +25,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="6">
   <si>
     <t>ESCALAS  IPB ARARUNA</t>
-  </si>
-  <si>
-    <t>JAIR</t>
-  </si>
-  <si>
-    <t>NALZIRA</t>
-  </si>
-  <si>
-    <t>LIDIA</t>
-  </si>
-  <si>
-    <t>JOSUE</t>
-  </si>
-  <si>
-    <t>TEREZINHA</t>
-  </si>
-  <si>
-    <t>EUNILDA</t>
-  </si>
-  <si>
-    <t>FERNANDO</t>
-  </si>
-  <si>
-    <t>SUZANY</t>
-  </si>
-  <si>
-    <t>RENICE</t>
-  </si>
-  <si>
-    <t>SONIA</t>
-  </si>
-  <si>
-    <t>VERA</t>
-  </si>
-  <si>
-    <t>KEREN</t>
-  </si>
-  <si>
-    <t>MARIANA</t>
   </si>
   <si>
     <t>data</t>
@@ -79,6 +40,9 @@
   </si>
   <si>
     <t>Culto Infantil</t>
+  </si>
+  <si>
+    <t>null</t>
   </si>
 </sst>
 </file>
@@ -187,27 +151,12 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="8">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -245,19 +194,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color indexed="64"/>
       </left>
       <right/>
@@ -291,6 +227,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -303,7 +254,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -313,68 +264,66 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="5" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="16" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -655,491 +604,698 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:I54"/>
+  <dimension ref="A1:I54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="25.5703125" customWidth="1"/>
+    <col min="1" max="1" width="25.5546875" customWidth="1"/>
     <col min="2" max="2" width="21" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" customWidth="1"/>
-    <col min="4" max="4" width="13.42578125" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" customWidth="1"/>
-    <col min="6" max="6" width="14.140625" customWidth="1"/>
-    <col min="7" max="7" width="15.28515625" customWidth="1"/>
-    <col min="8" max="8" width="23.28515625" customWidth="1"/>
-    <col min="9" max="9" width="24.42578125" customWidth="1"/>
+    <col min="3" max="3" width="11.88671875" customWidth="1"/>
+    <col min="4" max="4" width="13.44140625" customWidth="1"/>
+    <col min="5" max="5" width="17.109375" customWidth="1"/>
+    <col min="6" max="6" width="14.109375" customWidth="1"/>
+    <col min="7" max="7" width="15.33203125" customWidth="1"/>
+    <col min="8" max="8" width="23.33203125" customWidth="1"/>
+    <col min="9" max="9" width="24.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="22.5" x14ac:dyDescent="0.45">
-      <c r="B1" s="17" t="s">
+    <row r="1" spans="2:9" ht="21" x14ac:dyDescent="0.5">
+      <c r="B1" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-    </row>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+    </row>
+    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="23"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B3" s="13">
-        <v>45606</v>
-      </c>
-      <c r="C3" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="E3" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="25"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="27"/>
-      <c r="I3" s="27"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B4" s="13">
-        <v>45613</v>
-      </c>
-      <c r="C4" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="D4" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="E4" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="F4" s="28"/>
-      <c r="G4" s="29"/>
-      <c r="H4" s="29"/>
-      <c r="I4" s="29"/>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="13">
-        <v>45620</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="21" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" s="25"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="29"/>
-      <c r="I5" s="29"/>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="13">
-        <v>45627</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" s="14" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="25"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="29"/>
-      <c r="I6" s="29"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="13">
-        <v>45634</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="E7" s="21" t="s">
-        <v>10</v>
-      </c>
-      <c r="F7" s="25"/>
-      <c r="G7" s="29"/>
-      <c r="H7" s="29"/>
-      <c r="I7" s="29"/>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="13">
-        <v>45641</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="E8" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="F8" s="28"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="13">
-        <v>45648</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>1</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>2</v>
-      </c>
-      <c r="E9" s="21" t="s">
-        <v>3</v>
-      </c>
-      <c r="F9" s="25"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="29"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="15">
-        <v>45655</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" s="16" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10" s="22" t="s">
-        <v>6</v>
-      </c>
-      <c r="F10" s="25"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="29"/>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="9"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10"/>
-      <c r="E11" s="10"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="15"/>
+    </row>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B3" s="24">
+        <v>45767</v>
+      </c>
+      <c r="C3" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="E3" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="17"/>
+      <c r="G3" s="18"/>
+      <c r="H3" s="19"/>
+      <c r="I3" s="19"/>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B4" s="24">
+        <v>45774</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="20"/>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B5" s="24">
+        <v>45781</v>
+      </c>
+      <c r="C5" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="E5" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="17"/>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B6" s="24">
+        <v>45788</v>
+      </c>
+      <c r="C6" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D6" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="E6" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="F6" s="17"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B7" s="24">
+        <v>45795</v>
+      </c>
+      <c r="C7" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="E7" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="F7" s="17"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B8" s="24">
+        <v>45802</v>
+      </c>
+      <c r="C8" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="20"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B9" s="24">
+        <v>45809</v>
+      </c>
+      <c r="C9" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D9" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="E9" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" s="17"/>
+      <c r="G9" s="21"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B10" s="24">
+        <v>45816</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="17"/>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B11" s="24">
+        <v>45823</v>
+      </c>
+      <c r="C11" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D11" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="E11" s="25" t="s">
+        <v>5</v>
+      </c>
       <c r="F11" s="11"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="29"/>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B12" s="9"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B12" s="24">
+        <v>45830</v>
+      </c>
+      <c r="C12" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D12" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" s="25" t="s">
+        <v>5</v>
+      </c>
       <c r="F12" s="11"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="29"/>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B13" s="9"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B13" s="24">
+        <v>45837</v>
+      </c>
+      <c r="C13" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D13" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="25" t="s">
+        <v>5</v>
+      </c>
       <c r="F13" s="11"/>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B14" s="9"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
-      <c r="E14" s="10"/>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B14" s="24">
+        <v>45844</v>
+      </c>
+      <c r="C14" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D14" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="E14" s="25" t="s">
+        <v>5</v>
+      </c>
       <c r="F14" s="11"/>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B15" s="9"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B15" s="24">
+        <v>45851</v>
+      </c>
+      <c r="C15" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="E15" s="25" t="s">
+        <v>5</v>
+      </c>
       <c r="F15" s="11"/>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B16" s="9"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B16" s="24">
+        <v>45858</v>
+      </c>
+      <c r="C16" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="E16" s="25" t="s">
+        <v>5</v>
+      </c>
       <c r="F16" s="11"/>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B17" s="9"/>
-      <c r="C17" s="10"/>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B17" s="24">
+        <v>45865</v>
+      </c>
+      <c r="C17" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D17" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="E17" s="25" t="s">
+        <v>5</v>
+      </c>
       <c r="F17" s="11"/>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B18" s="9"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B18" s="24">
+        <v>45872</v>
+      </c>
+      <c r="C18" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="E18" s="25" t="s">
+        <v>5</v>
+      </c>
       <c r="F18" s="12"/>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B19" s="9"/>
-      <c r="C19" s="10"/>
-      <c r="D19" s="10"/>
-      <c r="E19" s="10"/>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B19" s="24">
+        <v>45879</v>
+      </c>
+      <c r="C19" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D19" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="E19" s="25" t="s">
+        <v>5</v>
+      </c>
       <c r="F19" s="11"/>
       <c r="G19" s="8"/>
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="9"/>
-      <c r="C20" s="10"/>
-      <c r="D20" s="10"/>
-      <c r="E20" s="10"/>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B20" s="24">
+        <v>45886</v>
+      </c>
+      <c r="C20" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D20" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="E20" s="25" t="s">
+        <v>5</v>
+      </c>
       <c r="F20" s="11"/>
       <c r="G20" s="4"/>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="9"/>
-      <c r="C21" s="10"/>
-      <c r="D21" s="10"/>
-      <c r="E21" s="10"/>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B21" s="24">
+        <v>45893</v>
+      </c>
+      <c r="C21" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D21" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="E21" s="25" t="s">
+        <v>5</v>
+      </c>
       <c r="F21" s="11"/>
       <c r="G21" s="4"/>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B22" s="9"/>
-      <c r="C22" s="10"/>
-      <c r="D22" s="10"/>
-      <c r="E22" s="10"/>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B22" s="24">
+        <v>45900</v>
+      </c>
+      <c r="C22" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D22" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="E22" s="25" t="s">
+        <v>5</v>
+      </c>
       <c r="F22" s="12"/>
       <c r="G22" s="5"/>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B23" s="9"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-      <c r="E23" s="10"/>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B23" s="24">
+        <v>45907</v>
+      </c>
+      <c r="C23" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D23" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="E23" s="25" t="s">
+        <v>5</v>
+      </c>
       <c r="F23" s="11"/>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B24" s="9"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="10"/>
-      <c r="E24" s="10"/>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B24" s="24">
+        <v>45914</v>
+      </c>
+      <c r="C24" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D24" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="E24" s="25" t="s">
+        <v>5</v>
+      </c>
       <c r="F24" s="11"/>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B25" s="9"/>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="10"/>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B25" s="24">
+        <v>45921</v>
+      </c>
+      <c r="C25" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D25" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="E25" s="25" t="s">
+        <v>5</v>
+      </c>
       <c r="F25" s="11"/>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B26" s="9"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B26" s="24">
+        <v>45928</v>
+      </c>
+      <c r="C26" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D26" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="E26" s="25" t="s">
+        <v>5</v>
+      </c>
       <c r="F26" s="12"/>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B27" s="9"/>
-      <c r="C27" s="10"/>
-      <c r="D27" s="10"/>
-      <c r="E27" s="10"/>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B27" s="24">
+        <v>45935</v>
+      </c>
+      <c r="C27" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D27" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="E27" s="25" t="s">
+        <v>5</v>
+      </c>
       <c r="F27" s="11"/>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B28" s="9"/>
-      <c r="C28" s="10"/>
-      <c r="D28" s="10"/>
-      <c r="E28" s="10"/>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B28" s="24">
+        <v>45942</v>
+      </c>
+      <c r="C28" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D28" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="E28" s="25" t="s">
+        <v>5</v>
+      </c>
       <c r="F28" s="11"/>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B29" s="9"/>
-      <c r="C29" s="10"/>
-      <c r="D29" s="10"/>
-      <c r="E29" s="10"/>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B29" s="24">
+        <v>45949</v>
+      </c>
+      <c r="C29" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D29" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="E29" s="25" t="s">
+        <v>5</v>
+      </c>
       <c r="F29" s="11"/>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B30" s="9"/>
-      <c r="C30" s="10"/>
-      <c r="D30" s="10"/>
-      <c r="E30" s="10"/>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B30" s="24">
+        <v>45956</v>
+      </c>
+      <c r="C30" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D30" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="E30" s="25" t="s">
+        <v>5</v>
+      </c>
       <c r="F30" s="12"/>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B31" s="9"/>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10"/>
-      <c r="E31" s="10"/>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B31" s="24">
+        <v>45963</v>
+      </c>
+      <c r="C31" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D31" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="E31" s="25" t="s">
+        <v>5</v>
+      </c>
       <c r="F31" s="11"/>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B32" s="9"/>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10"/>
-      <c r="E32" s="10"/>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="B32" s="24">
+        <v>45970</v>
+      </c>
+      <c r="C32" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D32" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="E32" s="25" t="s">
+        <v>5</v>
+      </c>
       <c r="F32" s="11"/>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B33" s="9"/>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10"/>
-      <c r="E33" s="10"/>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B33" s="24">
+        <v>45977</v>
+      </c>
+      <c r="C33" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D33" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="E33" s="25" t="s">
+        <v>5</v>
+      </c>
       <c r="F33" s="11"/>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B34" s="9"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
-      <c r="E34" s="10"/>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B34" s="24">
+        <v>45984</v>
+      </c>
+      <c r="C34" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D34" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="E34" s="25" t="s">
+        <v>5</v>
+      </c>
       <c r="F34" s="12"/>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B35" s="9"/>
-      <c r="C35" s="10"/>
-      <c r="D35" s="10"/>
-      <c r="E35" s="10"/>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B35" s="24">
+        <v>45991</v>
+      </c>
+      <c r="C35" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D35" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="E35" s="25" t="s">
+        <v>5</v>
+      </c>
       <c r="F35" s="11"/>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B36" s="9"/>
-      <c r="C36" s="10"/>
-      <c r="D36" s="10"/>
-      <c r="E36" s="10"/>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B36" s="24">
+        <v>45998</v>
+      </c>
+      <c r="C36" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D36" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="E36" s="25" t="s">
+        <v>5</v>
+      </c>
       <c r="F36" s="11"/>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B37" s="9"/>
-      <c r="C37" s="10"/>
-      <c r="D37" s="10"/>
-      <c r="E37" s="10"/>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B37" s="24">
+        <v>46005</v>
+      </c>
+      <c r="C37" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D37" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="E37" s="25" t="s">
+        <v>5</v>
+      </c>
       <c r="F37" s="11"/>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B38" s="9"/>
-      <c r="C38" s="10"/>
-      <c r="D38" s="10"/>
-      <c r="E38" s="10"/>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B38" s="24">
+        <v>46012</v>
+      </c>
+      <c r="C38" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D38" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="E38" s="25" t="s">
+        <v>5</v>
+      </c>
       <c r="F38" s="12"/>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B39" s="9"/>
-      <c r="C39" s="10"/>
-      <c r="D39" s="10"/>
-      <c r="E39" s="10"/>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B39" s="28">
+        <v>46019</v>
+      </c>
+      <c r="C39" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="D39" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="E39" s="25" t="s">
+        <v>5</v>
+      </c>
       <c r="F39" s="11"/>
     </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B40" s="9"/>
-      <c r="C40" s="10"/>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A40" s="29"/>
+      <c r="B40" s="30"/>
+      <c r="C40" s="25"/>
       <c r="D40" s="10"/>
       <c r="E40" s="10"/>
       <c r="F40" s="11"/>
     </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.25">
-      <c r="B41" s="9"/>
-      <c r="C41" s="10"/>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B41" s="27"/>
+      <c r="C41" s="25"/>
       <c r="D41" s="10"/>
       <c r="E41" s="10"/>
       <c r="F41" s="11"/>
     </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B42" s="9"/>
       <c r="C42" s="10"/>
       <c r="D42" s="10"/>
       <c r="E42" s="10"/>
       <c r="F42" s="12"/>
     </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B43" s="9"/>
       <c r="C43" s="10"/>
       <c r="D43" s="10"/>
       <c r="E43" s="10"/>
       <c r="F43" s="11"/>
     </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B44" s="9"/>
       <c r="C44" s="10"/>
       <c r="D44" s="10"/>
       <c r="E44" s="10"/>
       <c r="F44" s="11"/>
     </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B45" s="7"/>
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
       <c r="E45" s="7"/>
       <c r="F45" s="7"/>
     </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B46" s="7"/>
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
-      <c r="E46" s="7"/>
+      <c r="E46" s="26"/>
       <c r="F46" s="7"/>
     </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
       <c r="E47" s="7"/>
       <c r="F47" s="7"/>
     </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B48" s="7"/>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>
       <c r="E48" s="7"/>
       <c r="F48" s="7"/>
     </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B49" s="7"/>
       <c r="C49" s="7"/>
       <c r="D49" s="7"/>
       <c r="E49" s="7"/>
       <c r="F49" s="7"/>
     </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B53" s="1"/>
       <c r="C53" s="2"/>
       <c r="D53" s="2"/>
       <c r="E53" s="2"/>
     </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B54" s="1"/>
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ipara\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ipara\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B676AE36-256C-4956-B8B3-E62316251396}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68B56FD9-D5BE-4263-B938-FDEDD348DAE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -151,7 +151,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -168,17 +168,6 @@
       </right>
       <top style="thin">
         <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="thin">
-        <color rgb="FF000000"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -246,7 +235,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -281,7 +270,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -301,27 +290,16 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="16" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="16" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -604,10 +582,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I54"/>
+  <dimension ref="B1:I54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1113,7 +1091,7 @@
       </c>
       <c r="F32" s="11"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B33" s="24">
         <v>45977</v>
       </c>
@@ -1128,7 +1106,7 @@
       </c>
       <c r="F33" s="11"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B34" s="24">
         <v>45984</v>
       </c>
@@ -1143,7 +1121,7 @@
       </c>
       <c r="F34" s="12"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B35" s="24">
         <v>45991</v>
       </c>
@@ -1158,7 +1136,7 @@
       </c>
       <c r="F35" s="11"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B36" s="24">
         <v>45998</v>
       </c>
@@ -1173,7 +1151,7 @@
       </c>
       <c r="F36" s="11"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B37" s="24">
         <v>46005</v>
       </c>
@@ -1188,7 +1166,7 @@
       </c>
       <c r="F37" s="11"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B38" s="24">
         <v>46012</v>
       </c>
@@ -1203,8 +1181,8 @@
       </c>
       <c r="F38" s="12"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B39" s="28">
+    <row r="39" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B39" s="24">
         <v>46019</v>
       </c>
       <c r="C39" s="25" t="s">
@@ -1218,64 +1196,63 @@
       </c>
       <c r="F39" s="11"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A40" s="29"/>
-      <c r="B40" s="30"/>
-      <c r="C40" s="25"/>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B40" s="9"/>
+      <c r="C40" s="10"/>
       <c r="D40" s="10"/>
       <c r="E40" s="10"/>
       <c r="F40" s="11"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B41" s="27"/>
-      <c r="C41" s="25"/>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B41" s="9"/>
+      <c r="C41" s="10"/>
       <c r="D41" s="10"/>
       <c r="E41" s="10"/>
       <c r="F41" s="11"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B42" s="9"/>
       <c r="C42" s="10"/>
       <c r="D42" s="10"/>
       <c r="E42" s="10"/>
       <c r="F42" s="12"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B43" s="9"/>
       <c r="C43" s="10"/>
       <c r="D43" s="10"/>
       <c r="E43" s="10"/>
       <c r="F43" s="11"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B44" s="9"/>
       <c r="C44" s="10"/>
       <c r="D44" s="10"/>
       <c r="E44" s="10"/>
       <c r="F44" s="11"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B45" s="7"/>
       <c r="C45" s="7"/>
       <c r="D45" s="7"/>
       <c r="E45" s="7"/>
       <c r="F45" s="7"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B46" s="7"/>
       <c r="C46" s="7"/>
       <c r="D46" s="7"/>
-      <c r="E46" s="26"/>
+      <c r="E46" s="7"/>
       <c r="F46" s="7"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B47" s="7"/>
       <c r="C47" s="7"/>
       <c r="D47" s="7"/>
       <c r="E47" s="7"/>
       <c r="F47" s="7"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B48" s="7"/>
       <c r="C48" s="7"/>
       <c r="D48" s="7"/>

--- a/Book1.xlsx
+++ b/Book1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28730"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ipara\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{68B56FD9-D5BE-4263-B938-FDEDD348DAE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A7EEF7A-5B38-4CB0-B34D-0565885E3E66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,24 +25,42 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="12">
   <si>
     <t>ESCALAS  IPB ARARUNA</t>
   </si>
   <si>
-    <t>data</t>
-  </si>
-  <si>
     <t>Diaconia</t>
   </si>
   <si>
-    <t>Cafezinho</t>
-  </si>
-  <si>
     <t>Culto Infantil</t>
   </si>
   <si>
     <t>null</t>
+  </si>
+  <si>
+    <t>Ebd Infantil</t>
+  </si>
+  <si>
+    <t>Data</t>
+  </si>
+  <si>
+    <t>Lídia</t>
+  </si>
+  <si>
+    <t>Suzany</t>
+  </si>
+  <si>
+    <t>Suzany e keren</t>
+  </si>
+  <si>
+    <t>Sônia e Eunilda</t>
+  </si>
+  <si>
+    <t>Keren e Suzany</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Eunilda e Sônia</t>
   </si>
 </sst>
 </file>
@@ -235,7 +253,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -290,16 +308,19 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="16" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="16" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -585,7 +606,7 @@
   <dimension ref="B1:I54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -602,12 +623,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="21" x14ac:dyDescent="0.5">
-      <c r="B1" s="22" t="s">
+      <c r="B1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
       <c r="F1" s="13"/>
       <c r="G1" s="13"/>
       <c r="H1" s="13"/>
@@ -615,16 +636,16 @@
     </row>
     <row r="2" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="D2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="14" t="s">
         <v>2</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="14" t="s">
-        <v>4</v>
       </c>
       <c r="F2" s="15"/>
       <c r="G2" s="15"/>
@@ -632,17 +653,17 @@
       <c r="I2" s="15"/>
     </row>
     <row r="3" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B3" s="24">
-        <v>45767</v>
-      </c>
-      <c r="C3" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="E3" s="25" t="s">
-        <v>5</v>
+      <c r="B3" s="22">
+        <v>45816</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" s="23" t="s">
+        <v>8</v>
       </c>
       <c r="F3" s="17"/>
       <c r="G3" s="18"/>
@@ -650,557 +671,265 @@
       <c r="I3" s="19"/>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B4" s="24">
-        <v>45774</v>
-      </c>
-      <c r="C4" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="25" t="s">
-        <v>5</v>
+      <c r="B4" s="22">
+        <v>45823</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="23" t="s">
+        <v>9</v>
       </c>
       <c r="F4" s="20"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B5" s="24">
-        <v>45781</v>
-      </c>
-      <c r="C5" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="E5" s="25" t="s">
-        <v>5</v>
+      <c r="B5" s="22">
+        <v>45830</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="23" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="23" t="s">
+        <v>10</v>
       </c>
       <c r="F5" s="17"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B6" s="24">
-        <v>45788</v>
-      </c>
-      <c r="C6" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="D6" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="E6" s="25" t="s">
-        <v>5</v>
+      <c r="B6" s="22">
+        <v>45837</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>3</v>
+      </c>
+      <c r="D6" s="23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E6" s="23" t="s">
+        <v>11</v>
       </c>
       <c r="F6" s="17"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B7" s="24">
-        <v>45795</v>
-      </c>
-      <c r="C7" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="D7" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="E7" s="25" t="s">
-        <v>5</v>
-      </c>
+      <c r="B7" s="22"/>
+      <c r="C7" s="23"/>
+      <c r="D7" s="23"/>
+      <c r="E7" s="23"/>
       <c r="F7" s="17"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B8" s="24">
-        <v>45802</v>
-      </c>
-      <c r="C8" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8" s="25" t="s">
-        <v>5</v>
-      </c>
+      <c r="B8" s="22"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
       <c r="F8" s="20"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B9" s="24">
-        <v>45809</v>
-      </c>
-      <c r="C9" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="E9" s="25" t="s">
-        <v>5</v>
-      </c>
+      <c r="B9" s="22"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
       <c r="F9" s="17"/>
       <c r="G9" s="21"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B10" s="24">
-        <v>45816</v>
-      </c>
-      <c r="C10" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="D10" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="E10" s="25" t="s">
-        <v>5</v>
-      </c>
+      <c r="B10" s="22"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
       <c r="F10" s="17"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B11" s="24">
-        <v>45823</v>
-      </c>
-      <c r="C11" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="D11" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="E11" s="25" t="s">
-        <v>5</v>
-      </c>
+      <c r="B11" s="22"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23"/>
+      <c r="E11" s="23"/>
       <c r="F11" s="11"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B12" s="24">
-        <v>45830</v>
-      </c>
-      <c r="C12" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="D12" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="E12" s="25" t="s">
-        <v>5</v>
-      </c>
+      <c r="B12" s="22"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
       <c r="F12" s="11"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B13" s="24">
-        <v>45837</v>
-      </c>
-      <c r="C13" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="D13" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="E13" s="25" t="s">
-        <v>5</v>
-      </c>
+      <c r="B13" s="22"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
       <c r="F13" s="11"/>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B14" s="24">
-        <v>45844</v>
-      </c>
-      <c r="C14" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="D14" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="E14" s="25" t="s">
-        <v>5</v>
-      </c>
+      <c r="B14" s="22"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
       <c r="F14" s="11"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B15" s="24">
-        <v>45851</v>
-      </c>
-      <c r="C15" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="D15" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="E15" s="25" t="s">
-        <v>5</v>
-      </c>
+      <c r="B15" s="22"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
       <c r="F15" s="11"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B16" s="24">
-        <v>45858</v>
-      </c>
-      <c r="C16" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="D16" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="E16" s="25" t="s">
-        <v>5</v>
-      </c>
+      <c r="B16" s="22"/>
+      <c r="C16" s="23"/>
+      <c r="D16" s="23"/>
+      <c r="E16" s="23"/>
       <c r="F16" s="11"/>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B17" s="24">
-        <v>45865</v>
-      </c>
-      <c r="C17" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="E17" s="25" t="s">
-        <v>5</v>
-      </c>
+      <c r="B17" s="22"/>
+      <c r="C17" s="23"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="23"/>
       <c r="F17" s="11"/>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B18" s="24">
-        <v>45872</v>
-      </c>
-      <c r="C18" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="D18" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="E18" s="25" t="s">
-        <v>5</v>
-      </c>
+      <c r="B18" s="22"/>
+      <c r="C18" s="23"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="23"/>
       <c r="F18" s="12"/>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B19" s="24">
-        <v>45879</v>
-      </c>
-      <c r="C19" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="D19" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="E19" s="25" t="s">
-        <v>5</v>
-      </c>
+      <c r="B19" s="22"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
       <c r="F19" s="11"/>
       <c r="G19" s="8"/>
       <c r="H19" s="6"/>
       <c r="I19" s="6"/>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B20" s="24">
-        <v>45886</v>
-      </c>
-      <c r="C20" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="D20" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="E20" s="25" t="s">
-        <v>5</v>
-      </c>
+      <c r="B20" s="22"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
       <c r="F20" s="11"/>
       <c r="G20" s="4"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B21" s="24">
-        <v>45893</v>
-      </c>
-      <c r="C21" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="D21" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="E21" s="25" t="s">
-        <v>5</v>
-      </c>
+      <c r="B21" s="22"/>
+      <c r="C21" s="23"/>
+      <c r="D21" s="23"/>
+      <c r="E21" s="23"/>
       <c r="F21" s="11"/>
       <c r="G21" s="4"/>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B22" s="24">
-        <v>45900</v>
-      </c>
-      <c r="C22" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="D22" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="E22" s="25" t="s">
-        <v>5</v>
-      </c>
+      <c r="B22" s="22"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
       <c r="F22" s="12"/>
       <c r="G22" s="5"/>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B23" s="24">
-        <v>45907</v>
-      </c>
-      <c r="C23" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="D23" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="E23" s="25" t="s">
-        <v>5</v>
-      </c>
+      <c r="B23" s="22"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
       <c r="F23" s="11"/>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B24" s="24">
-        <v>45914</v>
-      </c>
-      <c r="C24" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="D24" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="E24" s="25" t="s">
-        <v>5</v>
-      </c>
+      <c r="B24" s="22"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
       <c r="F24" s="11"/>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B25" s="24">
-        <v>45921</v>
-      </c>
-      <c r="C25" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="D25" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="E25" s="25" t="s">
-        <v>5</v>
-      </c>
+      <c r="B25" s="22"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
       <c r="F25" s="11"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B26" s="24">
-        <v>45928</v>
-      </c>
-      <c r="C26" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="D26" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="E26" s="25" t="s">
-        <v>5</v>
-      </c>
+      <c r="B26" s="22"/>
+      <c r="C26" s="23"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
       <c r="F26" s="12"/>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B27" s="24">
-        <v>45935</v>
-      </c>
-      <c r="C27" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="D27" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="E27" s="25" t="s">
-        <v>5</v>
-      </c>
+      <c r="B27" s="22"/>
+      <c r="C27" s="23"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
       <c r="F27" s="11"/>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B28" s="24">
-        <v>45942</v>
-      </c>
-      <c r="C28" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="D28" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="E28" s="25" t="s">
-        <v>5</v>
-      </c>
+      <c r="B28" s="22"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
       <c r="F28" s="11"/>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B29" s="24">
-        <v>45949</v>
-      </c>
-      <c r="C29" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="D29" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="E29" s="25" t="s">
-        <v>5</v>
-      </c>
+      <c r="B29" s="22"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
       <c r="F29" s="11"/>
     </row>
     <row r="30" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B30" s="24">
-        <v>45956</v>
-      </c>
-      <c r="C30" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="D30" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="E30" s="25" t="s">
-        <v>5</v>
-      </c>
+      <c r="B30" s="22"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="23"/>
       <c r="F30" s="12"/>
     </row>
     <row r="31" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B31" s="24">
-        <v>45963</v>
-      </c>
-      <c r="C31" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="D31" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="E31" s="25" t="s">
-        <v>5</v>
-      </c>
+      <c r="B31" s="22"/>
+      <c r="C31" s="23"/>
+      <c r="D31" s="23"/>
+      <c r="E31" s="23"/>
       <c r="F31" s="11"/>
     </row>
     <row r="32" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B32" s="24">
-        <v>45970</v>
-      </c>
-      <c r="C32" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="D32" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="E32" s="25" t="s">
-        <v>5</v>
-      </c>
+      <c r="B32" s="22"/>
+      <c r="C32" s="23"/>
+      <c r="D32" s="23"/>
+      <c r="E32" s="23"/>
       <c r="F32" s="11"/>
     </row>
     <row r="33" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B33" s="24">
-        <v>45977</v>
-      </c>
-      <c r="C33" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="D33" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="E33" s="25" t="s">
-        <v>5</v>
-      </c>
+      <c r="B33" s="9"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="E33" s="10"/>
       <c r="F33" s="11"/>
     </row>
     <row r="34" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B34" s="24">
-        <v>45984</v>
-      </c>
-      <c r="C34" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="D34" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="E34" s="25" t="s">
-        <v>5</v>
-      </c>
       <c r="F34" s="12"/>
     </row>
     <row r="35" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B35" s="24">
-        <v>45991</v>
-      </c>
-      <c r="C35" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="D35" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="E35" s="25" t="s">
-        <v>5</v>
-      </c>
       <c r="F35" s="11"/>
     </row>
     <row r="36" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B36" s="24">
-        <v>45998</v>
-      </c>
-      <c r="C36" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="D36" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="E36" s="25" t="s">
-        <v>5</v>
-      </c>
       <c r="F36" s="11"/>
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B37" s="24">
-        <v>46005</v>
-      </c>
-      <c r="C37" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="D37" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="E37" s="25" t="s">
-        <v>5</v>
-      </c>
       <c r="F37" s="11"/>
     </row>
     <row r="38" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B38" s="24">
-        <v>46012</v>
-      </c>
-      <c r="C38" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="D38" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="E38" s="25" t="s">
-        <v>5</v>
-      </c>
       <c r="F38" s="12"/>
     </row>
     <row r="39" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B39" s="24">
-        <v>46019</v>
-      </c>
-      <c r="C39" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="D39" s="25" t="s">
-        <v>5</v>
-      </c>
-      <c r="E39" s="25" t="s">
-        <v>5</v>
-      </c>
       <c r="F39" s="11"/>
     </row>
     <row r="40" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B40" s="9"/>
-      <c r="C40" s="10"/>
-      <c r="D40" s="10"/>
-      <c r="E40" s="10"/>
       <c r="F40" s="11"/>
     </row>
     <row r="41" spans="2:6" x14ac:dyDescent="0.3">
